--- a/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-condition.xlsx
@@ -650,7 +650,7 @@
 この患者状態の記録やレコード作成に関連する受療の状況（外来、入院、救急、在宅など）</t>
   </si>
   <si>
-    <t>通常、イベントが発生した出会いの中で行われることが多いですが、公式的に出会いが完了する前または後に開始される場合がありますが、それでも出会いの文脈に関連する活動があります。この記録は、この特定の記録が関連付けられた出来事を示します。 「新しい」診断が、継続的に修正された情報を反映する場合、これは最初に患者が変化に気づいた最初の出会いとは異なる場合があります。</t>
+    <t>通常、イベントが発生したEncounter（診察、受診、入退院など）の中で行われることが多いですが、公式的にEncounter（診察、受診、入退院など）が完了する前または後に開始される場合がありますが、それでもEncounter（診察、受診、入退院など）の文脈に関連する活動があります。この記録は、この特定の記録が関連付けられた出来事を示します。 「新しい」診断が、継続的に修正された情報を反映する場合、これは最初に患者が変化に気づいた最初のEncounter（診察、受診、入退院など）とは異なる場合があります。</t>
   </si>
   <si>
     <t>Event.context</t>
